--- a/Team-Data/2012-13/4-6-2012-13.xlsx
+++ b/Team-Data/2012-13/4-6-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,46 +733,46 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" t="n">
         <v>42</v>
       </c>
       <c r="F2" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" t="n">
-        <v>0.538</v>
+        <v>0.545</v>
       </c>
       <c r="H2" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I2" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="J2" t="n">
         <v>80.59999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.464</v>
+        <v>0.465</v>
       </c>
       <c r="L2" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="N2" t="n">
         <v>0.376</v>
       </c>
       <c r="O2" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="P2" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.71</v>
+        <v>0.707</v>
       </c>
       <c r="R2" t="n">
         <v>9.1</v>
@@ -729,13 +796,13 @@
         <v>4.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AB2" t="n">
         <v>97.59999999999999</v>
@@ -768,10 +835,10 @@
         <v>6</v>
       </c>
       <c r="AL2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM2" t="n">
         <v>4</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>5</v>
       </c>
       <c r="AN2" t="n">
         <v>5</v>
@@ -798,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW2" t="n">
         <v>15</v>
@@ -807,10 +874,10 @@
         <v>22</v>
       </c>
       <c r="AY2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA2" t="n">
         <v>26</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-6-2012-13</t>
+          <t>2013-04-06</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-0.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AE3" t="n">
         <v>16</v>
@@ -971,7 +1038,7 @@
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT3" t="n">
         <v>29</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-6-2012-13</t>
+          <t>2013-04-06</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="n">
         <v>32</v>
       </c>
       <c r="G4" t="n">
-        <v>0.579</v>
+        <v>0.573</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
@@ -1054,16 +1121,16 @@
         <v>0.448</v>
       </c>
       <c r="L4" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="M4" t="n">
         <v>21.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0.356</v>
+        <v>0.358</v>
       </c>
       <c r="O4" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="P4" t="n">
         <v>23.8</v>
@@ -1072,19 +1139,19 @@
         <v>0.734</v>
       </c>
       <c r="R4" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="S4" t="n">
         <v>30</v>
       </c>
       <c r="T4" t="n">
-        <v>42.6</v>
+        <v>42.7</v>
       </c>
       <c r="U4" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V4" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W4" t="n">
         <v>7.1</v>
@@ -1099,25 +1166,25 @@
         <v>18.1</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.40000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AE4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF4" t="n">
         <v>9</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH4" t="n">
         <v>8</v>
@@ -1129,7 +1196,7 @@
         <v>28</v>
       </c>
       <c r="AK4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL4" t="n">
         <v>9</v>
@@ -1141,7 +1208,7 @@
         <v>15</v>
       </c>
       <c r="AO4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AP4" t="n">
         <v>7</v>
@@ -1153,7 +1220,7 @@
         <v>6</v>
       </c>
       <c r="AS4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT4" t="n">
         <v>10</v>
@@ -1162,7 +1229,7 @@
         <v>28</v>
       </c>
       <c r="AV4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW4" t="n">
         <v>23</v>
@@ -1171,7 +1238,7 @@
         <v>17</v>
       </c>
       <c r="AY4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ4" t="n">
         <v>4</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-6-2012-13</t>
+          <t>2013-04-06</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5" t="n">
         <v>18</v>
       </c>
       <c r="F5" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G5" t="n">
-        <v>0.234</v>
+        <v>0.237</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
@@ -1233,19 +1300,19 @@
         <v>81.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.422</v>
+        <v>0.421</v>
       </c>
       <c r="L5" t="n">
         <v>5.7</v>
       </c>
       <c r="M5" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="N5" t="n">
         <v>0.334</v>
       </c>
       <c r="O5" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="P5" t="n">
         <v>25.4</v>
@@ -1254,19 +1321,19 @@
         <v>0.749</v>
       </c>
       <c r="R5" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S5" t="n">
         <v>28.9</v>
       </c>
       <c r="T5" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="U5" t="n">
         <v>19.1</v>
       </c>
       <c r="V5" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="W5" t="n">
         <v>7.3</v>
@@ -1281,7 +1348,7 @@
         <v>19.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB5" t="n">
         <v>93.3</v>
@@ -1290,19 +1357,19 @@
         <v>-9.699999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
       </c>
       <c r="AF5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG5" t="n">
         <v>30</v>
       </c>
       <c r="AH5" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AI5" t="n">
         <v>30</v>
@@ -1326,7 +1393,7 @@
         <v>3</v>
       </c>
       <c r="AP5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ5" t="n">
         <v>19</v>
@@ -1347,7 +1414,7 @@
         <v>5</v>
       </c>
       <c r="AW5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AX5" t="n">
         <v>6</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-6-2012-13</t>
+          <t>2013-04-06</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>0.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
@@ -1481,7 +1548,7 @@
         <v>11</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
         <v>15</v>
@@ -1493,7 +1560,7 @@
         <v>13</v>
       </c>
       <c r="AK6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL6" t="n">
         <v>29</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-6-2012-13</t>
+          <t>2013-04-06</t>
         </is>
       </c>
     </row>
@@ -1654,13 +1721,13 @@
         <v>-4.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AE7" t="n">
         <v>27</v>
       </c>
       <c r="AF7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG7" t="n">
         <v>27</v>
@@ -1726,7 +1793,7 @@
         <v>14</v>
       </c>
       <c r="BB7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC7" t="n">
         <v>25</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-6-2012-13</t>
+          <t>2013-04-06</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>-0.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
         <v>17</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-6-2012-13</t>
+          <t>2013-04-06</t>
         </is>
       </c>
     </row>
@@ -1940,58 +2007,58 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E9" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F9" t="n">
         <v>24</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="H9" t="n">
         <v>48.5</v>
       </c>
       <c r="I9" t="n">
-        <v>40.6</v>
+        <v>40.5</v>
       </c>
       <c r="J9" t="n">
-        <v>85</v>
+        <v>84.8</v>
       </c>
       <c r="K9" t="n">
-        <v>0.478</v>
+        <v>0.477</v>
       </c>
       <c r="L9" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M9" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="N9" t="n">
-        <v>0.343</v>
+        <v>0.341</v>
       </c>
       <c r="O9" t="n">
         <v>18.3</v>
       </c>
       <c r="P9" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.698</v>
+        <v>0.699</v>
       </c>
       <c r="R9" t="n">
         <v>13.3</v>
       </c>
       <c r="S9" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="T9" t="n">
         <v>44.7</v>
       </c>
       <c r="U9" t="n">
-        <v>24.4</v>
+        <v>24.1</v>
       </c>
       <c r="V9" t="n">
         <v>15.1</v>
@@ -2012,13 +2079,13 @@
         <v>21.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>105.9</v>
+        <v>105.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE9" t="n">
         <v>4</v>
@@ -2042,7 +2109,7 @@
         <v>4</v>
       </c>
       <c r="AL9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM9" t="n">
         <v>19</v>
@@ -2072,7 +2139,7 @@
         <v>3</v>
       </c>
       <c r="AV9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW9" t="n">
         <v>2</v>
@@ -2084,16 +2151,16 @@
         <v>28</v>
       </c>
       <c r="AZ9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA9" t="n">
         <v>3</v>
       </c>
       <c r="BB9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-6-2012-13</t>
+          <t>2013-04-06</t>
         </is>
       </c>
     </row>
@@ -2122,34 +2189,34 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10" t="n">
         <v>25</v>
       </c>
       <c r="F10" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" t="n">
-        <v>0.325</v>
+        <v>0.329</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J10" t="n">
         <v>81.09999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L10" t="n">
         <v>6.2</v>
       </c>
       <c r="M10" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="N10" t="n">
         <v>0.354</v>
@@ -2176,10 +2243,10 @@
         <v>21.1</v>
       </c>
       <c r="V10" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W10" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X10" t="n">
         <v>5</v>
@@ -2188,19 +2255,19 @@
         <v>5.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA10" t="n">
         <v>19.8</v>
       </c>
       <c r="AB10" t="n">
-        <v>94.09999999999999</v>
+        <v>94</v>
       </c>
       <c r="AC10" t="n">
         <v>-4.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE10" t="n">
         <v>26</v>
@@ -2212,16 +2279,16 @@
         <v>26</v>
       </c>
       <c r="AH10" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
         <v>24</v>
       </c>
       <c r="AJ10" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL10" t="n">
         <v>23</v>
@@ -2245,7 +2312,7 @@
         <v>8</v>
       </c>
       <c r="AS10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT10" t="n">
         <v>14</v>
@@ -2254,7 +2321,7 @@
         <v>23</v>
       </c>
       <c r="AV10" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AW10" t="n">
         <v>27</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-6-2012-13</t>
+          <t>2013-04-06</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>0.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
         <v>9</v>
@@ -2394,7 +2461,7 @@
         <v>9</v>
       </c>
       <c r="AH11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
         <v>9</v>
@@ -2430,13 +2497,13 @@
         <v>1</v>
       </c>
       <c r="AT11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU11" t="n">
         <v>14</v>
       </c>
       <c r="AV11" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AW11" t="n">
         <v>26</v>
@@ -2445,7 +2512,7 @@
         <v>26</v>
       </c>
       <c r="AY11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ11" t="n">
         <v>28</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-6-2012-13</t>
+          <t>2013-04-06</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E12" t="n">
         <v>43</v>
       </c>
       <c r="F12" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
@@ -2513,37 +2580,37 @@
         <v>10.6</v>
       </c>
       <c r="M12" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="N12" t="n">
-        <v>0.369</v>
+        <v>0.368</v>
       </c>
       <c r="O12" t="n">
         <v>19.2</v>
       </c>
       <c r="P12" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.754</v>
+        <v>0.755</v>
       </c>
       <c r="R12" t="n">
         <v>11.1</v>
       </c>
       <c r="S12" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T12" t="n">
         <v>43.3</v>
       </c>
       <c r="U12" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="V12" t="n">
         <v>16.4</v>
       </c>
       <c r="W12" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X12" t="n">
         <v>4.1</v>
@@ -2555,25 +2622,25 @@
         <v>20.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>106.2</v>
+        <v>106.1</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF12" t="n">
         <v>11</v>
       </c>
-      <c r="AF12" t="n">
-        <v>12</v>
-      </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
         <v>24</v>
@@ -2600,7 +2667,7 @@
         <v>2</v>
       </c>
       <c r="AP12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ12" t="n">
         <v>17</v>
@@ -2621,10 +2688,10 @@
         <v>30</v>
       </c>
       <c r="AW12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY12" t="n">
         <v>25</v>
@@ -2633,7 +2700,7 @@
         <v>17</v>
       </c>
       <c r="BA12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB12" t="n">
         <v>1</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-6-2012-13</t>
+          <t>2013-04-06</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13" t="n">
         <v>48</v>
       </c>
       <c r="F13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G13" t="n">
-        <v>0.623</v>
+        <v>0.632</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
@@ -2686,10 +2753,10 @@
         <v>35.2</v>
       </c>
       <c r="J13" t="n">
-        <v>80.8</v>
+        <v>80.7</v>
       </c>
       <c r="K13" t="n">
-        <v>0.435</v>
+        <v>0.436</v>
       </c>
       <c r="L13" t="n">
         <v>6.9</v>
@@ -2698,19 +2765,19 @@
         <v>19.6</v>
       </c>
       <c r="N13" t="n">
-        <v>0.35</v>
+        <v>0.353</v>
       </c>
       <c r="O13" t="n">
         <v>17.5</v>
       </c>
       <c r="P13" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.751</v>
+        <v>0.75</v>
       </c>
       <c r="R13" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="S13" t="n">
         <v>33.2</v>
@@ -2728,25 +2795,25 @@
         <v>7.1</v>
       </c>
       <c r="X13" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Y13" t="n">
         <v>5.7</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA13" t="n">
         <v>21.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE13" t="n">
         <v>8</v>
@@ -2758,7 +2825,7 @@
         <v>8</v>
       </c>
       <c r="AH13" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
@@ -2767,7 +2834,7 @@
         <v>23</v>
       </c>
       <c r="AK13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL13" t="n">
         <v>16</v>
@@ -2779,10 +2846,10 @@
         <v>21</v>
       </c>
       <c r="AO13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AQ13" t="n">
         <v>18</v>
@@ -2791,7 +2858,7 @@
         <v>4</v>
       </c>
       <c r="AS13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
@@ -2803,7 +2870,7 @@
         <v>21</v>
       </c>
       <c r="AW13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX13" t="n">
         <v>4</v>
@@ -2812,16 +2879,16 @@
         <v>20</v>
       </c>
       <c r="AZ13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA13" t="n">
         <v>4</v>
       </c>
       <c r="BB13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-6-2012-13</t>
+          <t>2013-04-06</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>6.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
@@ -2940,7 +3007,7 @@
         <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI14" t="n">
         <v>5</v>
@@ -2964,7 +3031,7 @@
         <v>16</v>
       </c>
       <c r="AP14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ14" t="n">
         <v>26</v>
@@ -2976,7 +3043,7 @@
         <v>22</v>
       </c>
       <c r="AT14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-6-2012-13</t>
+          <t>2013-04-06</t>
         </is>
       </c>
     </row>
@@ -3110,19 +3177,19 @@
         <v>1.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AE15" t="n">
         <v>14</v>
       </c>
       <c r="AF15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG15" t="n">
         <v>14</v>
       </c>
       <c r="AH15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI15" t="n">
         <v>16</v>
@@ -3134,7 +3201,7 @@
         <v>10</v>
       </c>
       <c r="AL15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM15" t="n">
         <v>3</v>
@@ -3155,7 +3222,7 @@
         <v>13</v>
       </c>
       <c r="AS15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT15" t="n">
         <v>2</v>
@@ -3164,19 +3231,19 @@
         <v>17</v>
       </c>
       <c r="AV15" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AW15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX15" t="n">
         <v>15</v>
       </c>
       <c r="AY15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA15" t="n">
         <v>1</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-6-2012-13</t>
+          <t>2013-04-06</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>3.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AE16" t="n">
         <v>5</v>
@@ -3304,16 +3371,16 @@
         <v>5</v>
       </c>
       <c r="AH16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>16</v>
       </c>
-      <c r="AI16" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>17</v>
-      </c>
       <c r="AK16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3328,7 +3395,7 @@
         <v>19</v>
       </c>
       <c r="AP16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ16" t="n">
         <v>6</v>
@@ -3340,7 +3407,7 @@
         <v>26</v>
       </c>
       <c r="AT16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU16" t="n">
         <v>24</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-6-2012-13</t>
+          <t>2013-04-06</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
       </c>
       <c r="G17" t="n">
-        <v>0.789</v>
+        <v>0.787</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
@@ -3426,25 +3493,25 @@
         <v>21.5</v>
       </c>
       <c r="N17" t="n">
-        <v>0.397</v>
+        <v>0.394</v>
       </c>
       <c r="O17" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="P17" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.76</v>
+        <v>0.759</v>
       </c>
       <c r="R17" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="S17" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="T17" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="U17" t="n">
         <v>22.9</v>
@@ -3453,7 +3520,7 @@
         <v>13.7</v>
       </c>
       <c r="W17" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="X17" t="n">
         <v>5.3</v>
@@ -3462,19 +3529,19 @@
         <v>3.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB17" t="n">
         <v>102.9</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AE17" t="n">
         <v>1</v>
@@ -3507,25 +3574,25 @@
         <v>2</v>
       </c>
       <c r="AO17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP17" t="n">
         <v>11</v>
       </c>
-      <c r="AP17" t="n">
-        <v>12</v>
-      </c>
       <c r="AQ17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR17" t="n">
         <v>28</v>
       </c>
       <c r="AS17" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV17" t="n">
         <v>3</v>
@@ -3543,7 +3610,7 @@
         <v>8</v>
       </c>
       <c r="BA17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB17" t="n">
         <v>5</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-6-2012-13</t>
+          <t>2013-04-06</t>
         </is>
       </c>
     </row>
@@ -3578,73 +3645,73 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18" t="n">
         <v>39</v>
       </c>
       <c r="G18" t="n">
-        <v>0.487</v>
+        <v>0.48</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
       </c>
       <c r="I18" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J18" t="n">
-        <v>87.59999999999999</v>
+        <v>87.7</v>
       </c>
       <c r="K18" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L18" t="n">
         <v>7.1</v>
       </c>
       <c r="M18" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="N18" t="n">
-        <v>0.359</v>
+        <v>0.36</v>
       </c>
       <c r="O18" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="P18" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="Q18" t="n">
         <v>0.741</v>
       </c>
       <c r="R18" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="S18" t="n">
         <v>30.8</v>
       </c>
       <c r="T18" t="n">
-        <v>43.8</v>
+        <v>43.9</v>
       </c>
       <c r="U18" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V18" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="W18" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="X18" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="Y18" t="n">
         <v>4.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AA18" t="n">
         <v>19.3</v>
@@ -3653,22 +3720,22 @@
         <v>99</v>
       </c>
       <c r="AC18" t="n">
-        <v>-1.2</v>
+        <v>-1.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AE18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF18" t="n">
         <v>17</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI18" t="n">
         <v>6</v>
@@ -3707,7 +3774,7 @@
         <v>5</v>
       </c>
       <c r="AU18" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AV18" t="n">
         <v>7</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-6-2012-13</t>
+          <t>2013-04-06</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" t="n">
         <v>47</v>
       </c>
       <c r="G19" t="n">
-        <v>0.382</v>
+        <v>0.373</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
@@ -3790,22 +3857,22 @@
         <v>17.8</v>
       </c>
       <c r="N19" t="n">
-        <v>0.303</v>
+        <v>0.302</v>
       </c>
       <c r="O19" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="P19" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.736</v>
+        <v>0.735</v>
       </c>
       <c r="R19" t="n">
         <v>12.1</v>
       </c>
       <c r="S19" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T19" t="n">
         <v>42.3</v>
@@ -3817,7 +3884,7 @@
         <v>15</v>
       </c>
       <c r="W19" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X19" t="n">
         <v>4.8</v>
@@ -3826,37 +3893,37 @@
         <v>6</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AA19" t="n">
         <v>22.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>95.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.2</v>
+        <v>-2.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AE19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF19" t="n">
         <v>21</v>
       </c>
       <c r="AG19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI19" t="n">
         <v>25</v>
       </c>
       <c r="AJ19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK19" t="n">
         <v>24</v>
@@ -3877,7 +3944,7 @@
         <v>6</v>
       </c>
       <c r="AQ19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR19" t="n">
         <v>10</v>
@@ -3886,7 +3953,7 @@
         <v>17</v>
       </c>
       <c r="AT19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU19" t="n">
         <v>16</v>
@@ -3895,16 +3962,16 @@
         <v>21</v>
       </c>
       <c r="AW19" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY19" t="n">
         <v>24</v>
       </c>
       <c r="AZ19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA19" t="n">
         <v>2</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-6-2012-13</t>
+          <t>2013-04-06</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AE20" t="n">
         <v>25</v>
@@ -4068,7 +4135,7 @@
         <v>25</v>
       </c>
       <c r="AT20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU20" t="n">
         <v>22</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-6-2012-13</t>
+          <t>2013-04-06</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>4.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AE21" t="n">
         <v>7</v>
@@ -4220,7 +4287,7 @@
         <v>22</v>
       </c>
       <c r="AJ21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK21" t="n">
         <v>18</v>
@@ -4241,10 +4308,10 @@
         <v>16</v>
       </c>
       <c r="AQ21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS21" t="n">
         <v>24</v>
@@ -4259,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-6-2012-13</t>
+          <t>2013-04-06</t>
         </is>
       </c>
     </row>
@@ -4384,16 +4451,16 @@
         <v>9.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AE22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF22" t="n">
         <v>2</v>
       </c>
       <c r="AG22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH22" t="n">
         <v>12</v>
@@ -4456,7 +4523,7 @@
         <v>8</v>
       </c>
       <c r="BB22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-6-2012-13</t>
+          <t>2013-04-06</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-6.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4578,7 +4645,7 @@
         <v>29</v>
       </c>
       <c r="AH23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI23" t="n">
         <v>10</v>
@@ -4587,10 +4654,10 @@
         <v>5</v>
       </c>
       <c r="AK23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM23" t="n">
         <v>18</v>
@@ -4617,7 +4684,7 @@
         <v>11</v>
       </c>
       <c r="AU23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV23" t="n">
         <v>11</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-6-2012-13</t>
+          <t>2013-04-06</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E24" t="n">
         <v>31</v>
       </c>
       <c r="F24" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G24" t="n">
-        <v>0.408</v>
+        <v>0.413</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
@@ -4691,16 +4758,16 @@
         <v>83.90000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L24" t="n">
         <v>6.3</v>
       </c>
       <c r="M24" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="N24" t="n">
-        <v>0.36</v>
+        <v>0.361</v>
       </c>
       <c r="O24" t="n">
         <v>12.1</v>
@@ -4721,7 +4788,7 @@
         <v>41.4</v>
       </c>
       <c r="U24" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="V24" t="n">
         <v>13.1</v>
@@ -4730,25 +4797,25 @@
         <v>7.4</v>
       </c>
       <c r="X24" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z24" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AA24" t="n">
         <v>16.3</v>
       </c>
       <c r="AB24" t="n">
-        <v>92.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="AC24" t="n">
-        <v>-3.4</v>
+        <v>-3.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AE24" t="n">
         <v>20</v>
@@ -4763,13 +4830,13 @@
         <v>23</v>
       </c>
       <c r="AI24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ24" t="n">
         <v>7</v>
       </c>
       <c r="AK24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL24" t="n">
         <v>22</v>
@@ -4799,7 +4866,7 @@
         <v>18</v>
       </c>
       <c r="AU24" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AV24" t="n">
         <v>2</v>
@@ -4808,19 +4875,19 @@
         <v>18</v>
       </c>
       <c r="AX24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY24" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA24" t="n">
         <v>30</v>
       </c>
       <c r="BB24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BC24" t="n">
         <v>23</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-6-2012-13</t>
+          <t>2013-04-06</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-6.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
         <v>27</v>
@@ -4942,7 +5009,7 @@
         <v>28</v>
       </c>
       <c r="AH25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI25" t="n">
         <v>15</v>
@@ -4996,13 +5063,13 @@
         <v>17</v>
       </c>
       <c r="AZ25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA25" t="n">
         <v>27</v>
       </c>
       <c r="BB25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC25" t="n">
         <v>29</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-6-2012-13</t>
+          <t>2013-04-06</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-2.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AE26" t="n">
         <v>19</v>
@@ -5124,7 +5191,7 @@
         <v>19</v>
       </c>
       <c r="AH26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI26" t="n">
         <v>17</v>
@@ -5136,10 +5203,10 @@
         <v>14</v>
       </c>
       <c r="AL26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN26" t="n">
         <v>20</v>
@@ -5154,16 +5221,16 @@
         <v>9</v>
       </c>
       <c r="AR26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS26" t="n">
         <v>16</v>
       </c>
       <c r="AT26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV26" t="n">
         <v>14</v>
@@ -5175,7 +5242,7 @@
         <v>24</v>
       </c>
       <c r="AY26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ26" t="n">
         <v>7</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-6-2012-13</t>
+          <t>2013-04-06</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-4.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5330,7 +5397,7 @@
         <v>8</v>
       </c>
       <c r="AP27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ27" t="n">
         <v>11</v>
@@ -5354,7 +5421,7 @@
         <v>13</v>
       </c>
       <c r="AX27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY27" t="n">
         <v>27</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-6-2012-13</t>
+          <t>2013-04-06</t>
         </is>
       </c>
     </row>
@@ -5398,22 +5465,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E28" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F28" t="n">
         <v>20</v>
       </c>
       <c r="G28" t="n">
-        <v>0.74</v>
+        <v>0.737</v>
       </c>
       <c r="H28" t="n">
         <v>48.5</v>
       </c>
       <c r="I28" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="J28" t="n">
         <v>81.09999999999999</v>
@@ -5422,22 +5489,22 @@
         <v>0.484</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="N28" t="n">
-        <v>0.379</v>
+        <v>0.381</v>
       </c>
       <c r="O28" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="P28" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.791</v>
+        <v>0.79</v>
       </c>
       <c r="R28" t="n">
         <v>8.1</v>
@@ -5446,7 +5513,7 @@
         <v>33.1</v>
       </c>
       <c r="T28" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="U28" t="n">
         <v>25.1</v>
@@ -5455,10 +5522,10 @@
         <v>14.7</v>
       </c>
       <c r="W28" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X28" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y28" t="n">
         <v>4.9</v>
@@ -5467,16 +5534,16 @@
         <v>17.3</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AB28" t="n">
         <v>103.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
@@ -5494,13 +5561,13 @@
         <v>2</v>
       </c>
       <c r="AJ28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM28" t="n">
         <v>6</v>
@@ -5524,13 +5591,13 @@
         <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW28" t="n">
         <v>5</v>
@@ -5539,7 +5606,7 @@
         <v>10</v>
       </c>
       <c r="AY28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-6-2012-13</t>
+          <t>2013-04-06</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E29" t="n">
         <v>29</v>
       </c>
       <c r="F29" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G29" t="n">
-        <v>0.377</v>
+        <v>0.382</v>
       </c>
       <c r="H29" t="n">
         <v>48.8</v>
@@ -5601,13 +5668,13 @@
         <v>81.8</v>
       </c>
       <c r="K29" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L29" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M29" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="N29" t="n">
         <v>0.339</v>
@@ -5616,10 +5683,10 @@
         <v>17.3</v>
       </c>
       <c r="P29" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.786</v>
+        <v>0.785</v>
       </c>
       <c r="R29" t="n">
         <v>10.8</v>
@@ -5634,7 +5701,7 @@
         <v>21.5</v>
       </c>
       <c r="V29" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="W29" t="n">
         <v>7.3</v>
@@ -5643,37 +5710,37 @@
         <v>4.8</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z29" t="n">
         <v>22.7</v>
       </c>
       <c r="AA29" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB29" t="n">
-        <v>96.8</v>
+        <v>97</v>
       </c>
       <c r="AC29" t="n">
-        <v>-2.3</v>
+        <v>-2.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE29" t="n">
         <v>21</v>
       </c>
       <c r="AF29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH29" t="n">
         <v>2</v>
       </c>
       <c r="AI29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ29" t="n">
         <v>14</v>
@@ -5700,7 +5767,7 @@
         <v>5</v>
       </c>
       <c r="AR29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS29" t="n">
         <v>27</v>
@@ -5715,13 +5782,13 @@
         <v>4</v>
       </c>
       <c r="AW29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AX29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY29" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
@@ -5730,10 +5797,10 @@
         <v>13</v>
       </c>
       <c r="BB29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-6-2012-13</t>
+          <t>2013-04-06</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-0.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
         <v>14</v>
@@ -5852,10 +5919,10 @@
         <v>15</v>
       </c>
       <c r="AH30" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ30" t="n">
         <v>11</v>
@@ -5876,7 +5943,7 @@
         <v>7</v>
       </c>
       <c r="AP30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ30" t="n">
         <v>13</v>
@@ -5894,10 +5961,10 @@
         <v>13</v>
       </c>
       <c r="AV30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX30" t="n">
         <v>5</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-6-2012-13</t>
+          <t>2013-04-06</t>
         </is>
       </c>
     </row>
@@ -5944,22 +6011,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F31" t="n">
         <v>47</v>
       </c>
       <c r="G31" t="n">
-        <v>0.382</v>
+        <v>0.373</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
       </c>
       <c r="I31" t="n">
-        <v>35.4</v>
+        <v>35.3</v>
       </c>
       <c r="J31" t="n">
         <v>81.59999999999999</v>
@@ -5968,25 +6035,25 @@
         <v>0.433</v>
       </c>
       <c r="L31" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M31" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="N31" t="n">
         <v>0.364</v>
       </c>
       <c r="O31" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="P31" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="Q31" t="n">
         <v>0.735</v>
       </c>
       <c r="R31" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S31" t="n">
         <v>32.6</v>
@@ -5998,7 +6065,7 @@
         <v>21.8</v>
       </c>
       <c r="V31" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W31" t="n">
         <v>7.2</v>
@@ -6010,28 +6077,28 @@
         <v>4.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AA31" t="n">
         <v>19.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>93.09999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>-2</v>
+        <v>-2.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AE31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF31" t="n">
         <v>21</v>
       </c>
       <c r="AG31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH31" t="n">
         <v>8</v>
@@ -6061,10 +6128,10 @@
         <v>18</v>
       </c>
       <c r="AQ31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AS31" t="n">
         <v>6</v>
@@ -6073,10 +6140,10 @@
         <v>7</v>
       </c>
       <c r="AU31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV31" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AW31" t="n">
         <v>22</v>
@@ -6094,10 +6161,10 @@
         <v>23</v>
       </c>
       <c r="BB31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BC31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-6-2012-13</t>
+          <t>2013-04-06</t>
         </is>
       </c>
     </row>
